--- a/data/04-10-2025-lookup_types.xlsx
+++ b/data/04-10-2025-lookup_types.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="441">
   <si>
     <t>Id</t>
   </si>
@@ -1301,6 +1301,39 @@
   </si>
   <si>
     <t>A joint at the end of a line, often at a customer premise.</t>
+  </si>
+  <si>
+    <t>a54cf3ef-aabf-4c07-a611-f297ee78136e</t>
+  </si>
+  <si>
+    <t>SPLICE_TYPES</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>A direct, one-to-one connection between two fibers.</t>
+  </si>
+  <si>
+    <t>764fb14f-c510-454c-b341-045e3337200c</t>
+  </si>
+  <si>
+    <t>tj</t>
+  </si>
+  <si>
+    <t>A splice that connects one fiber to two or more other fibers (e.g., using a splitter)</t>
+  </si>
+  <si>
+    <t>a1396206-9345-4b65-b7cb-b079e9e2731e</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>crs</t>
+  </si>
+  <si>
+    <t>A connection where fibers are intentionally crossed (e.g., fiber 1 to fiber 2).</t>
   </si>
 </sst>
 </file>
@@ -1411,13 +1444,13 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1759,7 +1792,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J108"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5204,35 +5237,131 @@
       </c>
     </row>
     <row r="108" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F108" s="10">
-        <v>0</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="11">
+      <c r="F108" s="4">
+        <v>0</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="5">
         <v>45920</v>
       </c>
-      <c r="J108" s="11">
+      <c r="J108" s="5">
         <v>45920</v>
+      </c>
+    </row>
+    <row r="109" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="8">
+        <v>45934.45396518518</v>
+      </c>
+      <c r="J109" s="8">
+        <v>45934.45396518518</v>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F110" s="4">
+        <v>2</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="5">
+        <v>45934.45476474537</v>
+      </c>
+      <c r="J110" s="5">
+        <v>45934.45476474537</v>
+      </c>
+    </row>
+    <row r="111" ht="20" customHeight="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="F111" s="10">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="11">
+        <v>45934.454389756946</v>
+      </c>
+      <c r="J111" s="11">
+        <v>45934.45487159722</v>
       </c>
     </row>
   </sheetData>
